--- a/medicine/Psychotrope/Nathaniel_de_Rothschild/Nathaniel_de_Rothschild.xlsx
+++ b/medicine/Psychotrope/Nathaniel_de_Rothschild/Nathaniel_de_Rothschild.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathaniel de Rothschild (2 juillet 1812, Londres - 19 février 1870, Paris), est un banquier, homme d'affaires et propriétaire viticole.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Nathan Mayer Rothschild, il s'installe à Paris en 1859 pour travailler dans les affaires bancaires de son oncle, James de Rothschild.
 En 1853, il acquiert le château Brane Mouton, un vignoble de Pauillac, en Gironde, auprès du banquier parisien Thuret, qui l'avait déjà acheté du baron Hector de Branne en 1830. Rothschild paye 1 175 000 francs pour les 65 hectares de Brane-Mouton (263 000 m2 de vignobles et renomme le domaine, Château Mouton Rothschild, qui deviendra l'un des vignerons les plus connus au monde.
@@ -551,7 +565,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Nathaniel de Rothschild » (voir la liste des auteurs).</t>
         </is>
